--- a/breeding_patterns - win, sum/Dam, Sire birth season/Dam_Sire_Combinations_BW.xlsx
+++ b/breeding_patterns - win, sum/Dam, Sire birth season/Dam_Sire_Combinations_BW.xlsx
@@ -188,7 +188,7 @@
     <t xml:space="preserve">2023</t>
   </si>
   <si>
-    <t xml:space="preserve">2024</t>
+    <t xml:space="preserve">1963</t>
   </si>
   <si>
     <t xml:space="preserve">1965</t>
@@ -704,9 +704,6 @@
       <c r="BE1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -880,9 +877,6 @@
       <c r="BE2" t="n">
         <v>4</v>
       </c>
-      <c r="BF2" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1056,9 +1050,6 @@
       <c r="BE3" t="n">
         <v>4</v>
       </c>
-      <c r="BF3" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1232,9 +1223,6 @@
       <c r="BE4" t="n">
         <v>4</v>
       </c>
-      <c r="BF4" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1408,9 +1396,6 @@
       <c r="BE5" t="n">
         <v>0</v>
       </c>
-      <c r="BF5" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1584,9 +1569,6 @@
       <c r="BE6" t="n">
         <v>5</v>
       </c>
-      <c r="BF6" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1760,9 +1742,6 @@
       <c r="BE7" t="n">
         <v>3</v>
       </c>
-      <c r="BF7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1934,9 +1913,6 @@
         <v>2</v>
       </c>
       <c r="BE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2112,9 +2088,6 @@
       <c r="BE9" t="n">
         <v>0</v>
       </c>
-      <c r="BF9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2286,9 +2259,6 @@
         <v>3</v>
       </c>
       <c r="BE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2464,9 +2434,6 @@
       <c r="BE11" t="n">
         <v>0</v>
       </c>
-      <c r="BF11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2640,9 +2607,6 @@
       <c r="BE12" t="n">
         <v>0</v>
       </c>
-      <c r="BF12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2815,9 +2779,6 @@
       </c>
       <c r="BE13" t="n">
         <v>2</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2839,187 +2800,187 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
       <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>59</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>35</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>36</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>37</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>42</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>61</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>44</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>45</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>46</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>47</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>48</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>49</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>50</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>51</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>52</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>53</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>54</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>55</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>56</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -3030,184 +2991,184 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>23</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>20</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>17</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>8</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>31</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>45</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>38</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>14</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
       <c r="N2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" t="n">
         <v>52</v>
       </c>
-      <c r="O2" t="n">
-        <v>5</v>
-      </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>13</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>21</v>
       </c>
-      <c r="T2" t="n">
-        <v>9</v>
-      </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>38</v>
       </c>
-      <c r="W2" t="n">
-        <v>9</v>
-      </c>
       <c r="X2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z2" t="n">
         <v>24</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>29</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>34</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>23</v>
       </c>
-      <c r="AC2" t="n">
-        <v>4</v>
-      </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AF2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG2" t="n">
         <v>41</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>32</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>8</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>10</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
       <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
         <v>20</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AM2" t="n">
         <v>63</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AN2" t="n">
         <v>41</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AO2" t="n">
         <v>43</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AP2" t="n">
         <v>24</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AQ2" t="n">
         <v>35</v>
       </c>
-      <c r="AQ2" t="n">
-        <v>4</v>
-      </c>
       <c r="AR2" t="n">
         <v>4</v>
       </c>
       <c r="AS2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT2" t="n">
         <v>33</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AU2" t="n">
         <v>21</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AV2" t="n">
         <v>32</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AW2" t="n">
         <v>13</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AX2" t="n">
         <v>42</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AY2" t="n">
         <v>36</v>
       </c>
-      <c r="AY2" t="n">
-        <v>0</v>
-      </c>
       <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
         <v>27</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BB2" t="n">
         <v>23</v>
       </c>
-      <c r="BB2" t="n">
-        <v>0</v>
-      </c>
       <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
         <v>53</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BE2" t="n">
         <v>15</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BF2" t="n">
         <v>44</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>40</v>
       </c>
       <c r="BG2" t="n">
         <v>40</v>
       </c>
       <c r="BH2" t="n">
+        <v>40</v>
+      </c>
+      <c r="BI2" t="n">
         <v>30</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BJ2" t="n">
         <v>10</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3218,184 +3179,184 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>18</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>15</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>10</v>
       </c>
-      <c r="F3" t="n">
-        <v>4</v>
-      </c>
       <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="n">
         <v>41</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>39</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>1</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>37</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>8</v>
       </c>
-      <c r="M3" t="n">
-        <v>6</v>
-      </c>
       <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
         <v>29</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>12</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>53</v>
       </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>11</v>
       </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
       <c r="U3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
+        <v>9</v>
+      </c>
+      <c r="W3" t="n">
         <v>35</v>
       </c>
-      <c r="W3" t="n">
-        <v>5</v>
-      </c>
       <c r="X3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z3" t="n">
         <v>37</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>18</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
         <v>26</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
         <v>15</v>
       </c>
-      <c r="AC3" t="n">
-        <v>5</v>
-      </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF3" t="n">
         <v>25</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AG3" t="n">
         <v>28</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
         <v>38</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AI3" t="n">
         <v>13</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AJ3" t="n">
         <v>18</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
       <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
         <v>28</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AM3" t="n">
         <v>41</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AN3" t="n">
         <v>19</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AO3" t="n">
         <v>17</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AP3" t="n">
         <v>10</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AQ3" t="n">
         <v>21</v>
       </c>
-      <c r="AQ3" t="n">
-        <v>5</v>
-      </c>
       <c r="AR3" t="n">
         <v>5</v>
       </c>
       <c r="AS3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT3" t="n">
         <v>23</v>
       </c>
-      <c r="AT3" t="n">
-        <v>9</v>
-      </c>
       <c r="AU3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV3" t="n">
         <v>38</v>
       </c>
-      <c r="AV3" t="n">
-        <v>3</v>
-      </c>
       <c r="AW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX3" t="n">
         <v>25</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AY3" t="n">
         <v>22</v>
       </c>
-      <c r="AY3" t="n">
-        <v>4</v>
-      </c>
       <c r="AZ3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA3" t="n">
         <v>32</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BB3" t="n">
         <v>14</v>
       </c>
-      <c r="BB3" t="n">
-        <v>9</v>
-      </c>
       <c r="BC3" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD3" t="n">
         <v>53</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BE3" t="n">
         <v>17</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BF3" t="n">
         <v>42</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BG3" t="n">
         <v>44</v>
       </c>
-      <c r="BG3" t="n">
-        <v>7</v>
-      </c>
       <c r="BH3" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI3" t="n">
         <v>22</v>
       </c>
-      <c r="BI3" t="n">
-        <v>7</v>
-      </c>
       <c r="BJ3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3403,187 +3364,187 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>21</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>16</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>14</v>
       </c>
-      <c r="F4" t="n">
-        <v>7</v>
-      </c>
       <c r="G4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" t="n">
         <v>24</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>19</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>32</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>13</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>18</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>37</v>
       </c>
-      <c r="O4" t="n">
-        <v>7</v>
-      </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>36</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
       <c r="S4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
+        <v>7</v>
+      </c>
+      <c r="U4" t="n">
         <v>2</v>
       </c>
-      <c r="U4" t="n">
-        <v>7</v>
-      </c>
       <c r="V4" t="n">
+        <v>7</v>
+      </c>
+      <c r="W4" t="n">
         <v>30</v>
       </c>
-      <c r="W4" t="n">
-        <v>7</v>
-      </c>
       <c r="X4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z4" t="n">
         <v>48</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>20</v>
       </c>
       <c r="AA4" t="n">
         <v>20</v>
       </c>
       <c r="AB4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC4" t="n">
         <v>19</v>
       </c>
-      <c r="AC4" t="n">
-        <v>5</v>
-      </c>
       <c r="AD4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF4" t="n">
         <v>30</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AG4" t="n">
         <v>38</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AH4" t="n">
         <v>42</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AI4" t="n">
         <v>24</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AJ4" t="n">
         <v>15</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
       <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
         <v>34</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AM4" t="n">
         <v>25</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AN4" t="n">
         <v>23</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AO4" t="n">
         <v>14</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AP4" t="n">
         <v>12</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AQ4" t="n">
         <v>13</v>
       </c>
-      <c r="AQ4" t="n">
-        <v>3</v>
-      </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
         <v>21</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AU4" t="n">
         <v>17</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AV4" t="n">
         <v>53</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AW4" t="n">
         <v>30</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AX4" t="n">
         <v>31</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AY4" t="n">
         <v>16</v>
       </c>
-      <c r="AY4" t="n">
-        <v>9</v>
-      </c>
       <c r="AZ4" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA4" t="n">
         <v>30</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BB4" t="n">
         <v>16</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BC4" t="n">
         <v>13</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>52</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BE4" t="n">
         <v>14</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BF4" t="n">
         <v>33</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BG4" t="n">
         <v>42</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BH4" t="n">
         <v>65</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BI4" t="n">
         <v>30</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BJ4" t="n">
         <v>2</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -3591,172 +3552,172 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>15</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>22</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>17</v>
       </c>
-      <c r="F5" t="n">
-        <v>9</v>
-      </c>
       <c r="G5" t="n">
+        <v>9</v>
+      </c>
+      <c r="H5" t="n">
         <v>24</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>15</v>
       </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
       <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
         <v>26</v>
       </c>
-      <c r="L5" t="n">
-        <v>5</v>
-      </c>
       <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="n">
         <v>25</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>31</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
         <v>43</v>
       </c>
-      <c r="R5" t="n">
-        <v>3</v>
-      </c>
       <c r="S5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>20</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>33</v>
       </c>
-      <c r="W5" t="n">
-        <v>9</v>
-      </c>
       <c r="X5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Y5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z5" t="n">
         <v>26</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
         <v>14</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
         <v>16</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
         <v>24</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>13</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AE5" t="n">
         <v>8</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AF5" t="n">
         <v>13</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AG5" t="n">
         <v>32</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AH5" t="n">
         <v>22</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AI5" t="n">
         <v>16</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AJ5" t="n">
         <v>10</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
       <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
         <v>54</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AM5" t="n">
         <v>34</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AN5" t="n">
         <v>28</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AO5" t="n">
         <v>14</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AP5" t="n">
         <v>13</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AQ5" t="n">
         <v>11</v>
       </c>
-      <c r="AQ5" t="n">
-        <v>0</v>
-      </c>
       <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
         <v>1</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AT5" t="n">
         <v>27</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AU5" t="n">
         <v>15</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AV5" t="n">
         <v>44</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AW5" t="n">
         <v>35</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AX5" t="n">
         <v>23</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AY5" t="n">
         <v>10</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AZ5" t="n">
         <v>2</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="BA5" t="n">
         <v>26</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BB5" t="n">
         <v>16</v>
       </c>
-      <c r="BB5" t="n">
-        <v>6</v>
-      </c>
       <c r="BC5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD5" t="n">
         <v>53</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BE5" t="n">
         <v>16</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>40</v>
       </c>
       <c r="BF5" t="n">
         <v>40</v>
@@ -3765,13 +3726,13 @@
         <v>40</v>
       </c>
       <c r="BH5" t="n">
+        <v>40</v>
+      </c>
+      <c r="BI5" t="n">
         <v>37</v>
       </c>
-      <c r="BI5" t="n">
-        <v>5</v>
-      </c>
       <c r="BJ5" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3779,187 +3740,187 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
         <v>23</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>28</v>
       </c>
-      <c r="F6" t="n">
-        <v>9</v>
-      </c>
       <c r="G6" t="n">
+        <v>9</v>
+      </c>
+      <c r="H6" t="n">
         <v>30</v>
       </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
       <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
         <v>33</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>2</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>39</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>29</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>36</v>
       </c>
-      <c r="O6" t="n">
-        <v>5</v>
-      </c>
       <c r="P6" t="n">
         <v>5</v>
       </c>
       <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
         <v>30</v>
       </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
       <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>11</v>
       </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>17</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>29</v>
       </c>
-      <c r="W6" t="n">
-        <v>9</v>
-      </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA6" t="n">
         <v>12</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AB6" t="n">
         <v>27</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
         <v>26</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
         <v>14</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AE6" t="n">
         <v>11</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AF6" t="n">
         <v>19</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AG6" t="n">
         <v>43</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AH6" t="n">
         <v>24</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AI6" t="n">
         <v>17</v>
       </c>
-      <c r="AI6" t="n">
-        <v>6</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
         <v>44</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AM6" t="n">
         <v>26</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AN6" t="n">
         <v>20</v>
       </c>
-      <c r="AN6" t="n">
-        <v>4</v>
-      </c>
       <c r="AO6" t="n">
         <v>4</v>
       </c>
       <c r="AP6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
       </c>
       <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
         <v>26</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AU6" t="n">
         <v>12</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AV6" t="n">
         <v>52</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AW6" t="n">
         <v>35</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AX6" t="n">
         <v>31</v>
       </c>
-      <c r="AX6" t="n">
-        <v>9</v>
-      </c>
       <c r="AY6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ6" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA6" t="n">
         <v>21</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BB6" t="n">
         <v>13</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BC6" t="n">
         <v>11</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>38</v>
       </c>
-      <c r="BD6" t="n">
-        <v>3</v>
-      </c>
       <c r="BE6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF6" t="n">
         <v>18</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BG6" t="n">
         <v>20</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BH6" t="n">
         <v>35</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BI6" t="n">
         <v>16</v>
       </c>
-      <c r="BI6" t="n">
-        <v>9</v>
-      </c>
       <c r="BJ6" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -3967,187 +3928,187 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
         <v>39</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>13</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>28</v>
       </c>
-      <c r="F7" t="n">
-        <v>3</v>
-      </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
         <v>10</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>12</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>37</v>
       </c>
-      <c r="L7" t="n">
-        <v>6</v>
-      </c>
       <c r="M7" t="n">
+        <v>6</v>
+      </c>
+      <c r="N7" t="n">
         <v>45</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>23</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
         <v>12</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>1</v>
       </c>
-      <c r="S7" t="n">
-        <v>4</v>
-      </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>23</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>14</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2</v>
       </c>
       <c r="X7" t="n">
         <v>2</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Z7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB7" t="n">
         <v>17</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AC7" t="n">
         <v>15</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AD7" t="n">
         <v>11</v>
       </c>
-      <c r="AD7" t="n">
-        <v>4</v>
-      </c>
       <c r="AE7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF7" t="n">
         <v>12</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AG7" t="n">
         <v>24</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AH7" t="n">
         <v>15</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AI7" t="n">
         <v>10</v>
       </c>
-      <c r="AI7" t="n">
-        <v>7</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
         <v>33</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AM7" t="n">
         <v>34</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AN7" t="n">
         <v>25</v>
       </c>
-      <c r="AN7" t="n">
-        <v>9</v>
-      </c>
       <c r="AO7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AP7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
       </c>
       <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
         <v>8</v>
       </c>
-      <c r="AT7" t="n">
-        <v>6</v>
-      </c>
       <c r="AU7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV7" t="n">
         <v>48</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AW7" t="n">
         <v>28</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AX7" t="n">
         <v>16</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AY7" t="n">
         <v>24</v>
       </c>
-      <c r="AY7" t="n">
-        <v>0</v>
-      </c>
       <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
         <v>21</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BB7" t="n">
         <v>12</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BC7" t="n">
         <v>22</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>27</v>
       </c>
-      <c r="BD7" t="n">
-        <v>3</v>
-      </c>
       <c r="BE7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF7" t="n">
         <v>27</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BG7" t="n">
         <v>28</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BH7" t="n">
         <v>32</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BI7" t="n">
         <v>16</v>
       </c>
-      <c r="BI7" t="n">
-        <v>6</v>
-      </c>
       <c r="BJ7" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -4155,86 +4116,86 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="C8" t="n">
-        <v>5</v>
-      </c>
       <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
         <v>15</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>40</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>12</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>9</v>
+      </c>
+      <c r="J8" t="n">
         <v>8</v>
       </c>
-      <c r="J8" t="n">
-        <v>9</v>
-      </c>
       <c r="K8" t="n">
+        <v>9</v>
+      </c>
+      <c r="L8" t="n">
         <v>24</v>
       </c>
-      <c r="L8" t="n">
-        <v>5</v>
-      </c>
       <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="n">
         <v>52</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>15</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>17</v>
       </c>
-      <c r="Q8" t="n">
-        <v>6</v>
-      </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>14</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>22</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>2</v>
       </c>
-      <c r="X8" t="n">
-        <v>5</v>
-      </c>
       <c r="Y8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z8" t="n">
         <v>14</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AA8" t="n">
         <v>16</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AB8" t="n">
         <v>17</v>
       </c>
-      <c r="AB8" t="n">
-        <v>7</v>
-      </c>
       <c r="AC8" t="n">
         <v>7</v>
       </c>
@@ -4242,100 +4203,100 @@
         <v>7</v>
       </c>
       <c r="AE8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF8" t="n">
         <v>11</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>13</v>
       </c>
       <c r="AG8" t="n">
         <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
         <v>36</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>24</v>
       </c>
       <c r="AM8" t="n">
         <v>24</v>
       </c>
       <c r="AN8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO8" t="n">
         <v>28</v>
       </c>
-      <c r="AO8" t="n">
-        <v>3</v>
-      </c>
       <c r="AP8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>12</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>3</v>
-      </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
         <v>16</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AU8" t="n">
         <v>12</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AV8" t="n">
         <v>47</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AW8" t="n">
         <v>28</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AX8" t="n">
         <v>12</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AY8" t="n">
         <v>28</v>
       </c>
-      <c r="AY8" t="n">
-        <v>0</v>
-      </c>
       <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
         <v>27</v>
       </c>
-      <c r="BA8" t="n">
-        <v>5</v>
-      </c>
       <c r="BB8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC8" t="n">
         <v>11</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BD8" t="n">
         <v>23</v>
       </c>
-      <c r="BD8" t="n">
-        <v>3</v>
-      </c>
       <c r="BE8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF8" t="n">
         <v>25</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="BG8" t="n">
         <v>24</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="BH8" t="n">
         <v>32</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BI8" t="n">
         <v>26</v>
       </c>
-      <c r="BI8" t="n">
-        <v>0</v>
-      </c>
       <c r="BJ8" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4343,187 +4304,187 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
         <v>44</v>
       </c>
-      <c r="C9" t="n">
-        <v>9</v>
-      </c>
       <c r="D9" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" t="n">
         <v>8</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>29</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>12</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>26</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>10</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>16</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>14</v>
       </c>
-      <c r="L9" t="n">
-        <v>4</v>
-      </c>
       <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="n">
         <v>34</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>21</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>15</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>13</v>
       </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>2</v>
       </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>13</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>17</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>15</v>
       </c>
-      <c r="X9" t="n">
-        <v>5</v>
-      </c>
       <c r="Y9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z9" t="n">
         <v>33</v>
       </c>
-      <c r="Z9" t="n">
-        <v>6</v>
-      </c>
       <c r="AA9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB9" t="n">
         <v>14</v>
       </c>
-      <c r="AB9" t="n">
-        <v>4</v>
-      </c>
       <c r="AC9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD9" t="n">
         <v>21</v>
       </c>
-      <c r="AD9" t="n">
-        <v>5</v>
-      </c>
       <c r="AE9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF9" t="n">
         <v>14</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AG9" t="n">
         <v>42</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AH9" t="n">
         <v>11</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AI9" t="n">
         <v>2</v>
       </c>
-      <c r="AI9" t="n">
-        <v>6</v>
-      </c>
       <c r="AJ9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK9" t="n">
         <v>8</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AL9" t="n">
         <v>28</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AM9" t="n">
         <v>17</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AN9" t="n">
         <v>13</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AO9" t="n">
         <v>32</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AP9" t="n">
         <v>1</v>
       </c>
-      <c r="AP9" t="n">
-        <v>6</v>
-      </c>
       <c r="AQ9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
         <v>12</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="AU9" t="n">
         <v>19</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="AV9" t="n">
         <v>55</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="AW9" t="n">
         <v>28</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="AX9" t="n">
         <v>13</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="AY9" t="n">
         <v>34</v>
       </c>
-      <c r="AY9" t="n">
-        <v>0</v>
-      </c>
       <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
         <v>12</v>
       </c>
-      <c r="BA9" t="n">
-        <v>0</v>
-      </c>
       <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
         <v>13</v>
       </c>
-      <c r="BC9" t="n">
+      <c r="BD9" t="n">
         <v>37</v>
       </c>
-      <c r="BD9" t="n">
-        <v>0</v>
-      </c>
       <c r="BE9" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG9" t="n">
         <v>25</v>
       </c>
-      <c r="BG9" t="n">
+      <c r="BH9" t="n">
         <v>33</v>
       </c>
-      <c r="BH9" t="n">
+      <c r="BI9" t="n">
         <v>11</v>
       </c>
-      <c r="BI9" t="n">
-        <v>0</v>
-      </c>
       <c r="BJ9" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -4531,55 +4492,55 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
         <v>42</v>
       </c>
-      <c r="C10" t="n">
-        <v>9</v>
-      </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
         <v>36</v>
       </c>
-      <c r="F10" t="n">
-        <v>6</v>
-      </c>
       <c r="G10" t="n">
+        <v>6</v>
+      </c>
+      <c r="H10" t="n">
         <v>2</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>94</v>
       </c>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
       <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
         <v>31</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>16</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>24</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>17</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>2</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>10</v>
       </c>
-      <c r="Q10" t="n">
-        <v>9</v>
-      </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -4588,130 +4549,130 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>21</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>20</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>14</v>
       </c>
-      <c r="X10" t="n">
-        <v>6</v>
-      </c>
       <c r="Y10" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z10" t="n">
         <v>41</v>
       </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
       <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
         <v>15</v>
       </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
       <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
         <v>15</v>
       </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
       <c r="AE10" t="n">
         <v>0</v>
       </c>
       <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
         <v>65</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AH10" t="n">
         <v>2</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AI10" t="n">
         <v>15</v>
       </c>
-      <c r="AI10" t="n">
-        <v>3</v>
-      </c>
       <c r="AJ10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK10" t="n">
         <v>16</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AL10" t="n">
         <v>60</v>
       </c>
-      <c r="AL10" t="n">
-        <v>9</v>
-      </c>
       <c r="AM10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN10" t="n">
         <v>21</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AO10" t="n">
         <v>50</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AP10" t="n">
         <v>20</v>
       </c>
-      <c r="AP10" t="n">
-        <v>7</v>
-      </c>
       <c r="AQ10" t="n">
         <v>7</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
         <v>35</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AU10" t="n">
         <v>10</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="AV10" t="n">
         <v>29</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="AW10" t="n">
         <v>44</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="AX10" t="n">
         <v>16</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AY10" t="n">
         <v>23</v>
       </c>
-      <c r="AY10" t="n">
-        <v>0</v>
-      </c>
       <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
         <v>18</v>
       </c>
-      <c r="BA10" t="n">
-        <v>5</v>
-      </c>
       <c r="BB10" t="n">
         <v>5</v>
       </c>
       <c r="BC10" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD10" t="n">
         <v>19</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BE10" t="n">
         <v>27</v>
       </c>
-      <c r="BE10" t="n">
+      <c r="BF10" t="n">
         <v>18</v>
       </c>
-      <c r="BF10" t="n">
+      <c r="BG10" t="n">
         <v>45</v>
       </c>
-      <c r="BG10" t="n">
+      <c r="BH10" t="n">
         <v>34</v>
       </c>
-      <c r="BH10" t="n">
+      <c r="BI10" t="n">
         <v>35</v>
       </c>
-      <c r="BI10" t="n">
-        <v>0</v>
-      </c>
       <c r="BJ10" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -4722,52 +4683,52 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
         <v>28</v>
       </c>
-      <c r="F11" t="n">
-        <v>5</v>
-      </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>67</v>
       </c>
-      <c r="I11" t="n">
-        <v>5</v>
-      </c>
       <c r="J11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K11" t="n">
         <v>34</v>
       </c>
-      <c r="K11" t="n">
-        <v>9</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>44</v>
       </c>
-      <c r="N11" t="n">
-        <v>4</v>
-      </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P11" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -4776,130 +4737,130 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>43</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>8</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>16</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Y11" t="n">
         <v>19</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Z11" t="n">
         <v>38</v>
       </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
       <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
         <v>23</v>
       </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
       <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
         <v>12</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AE11" t="n">
         <v>8</v>
       </c>
-      <c r="AE11" t="n">
-        <v>4</v>
-      </c>
       <c r="AF11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG11" t="n">
         <v>66</v>
       </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
       <c r="AH11" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK11" t="n">
         <v>12</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AL11" t="n">
         <v>73</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AM11" t="n">
         <v>10</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AN11" t="n">
         <v>19</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AO11" t="n">
         <v>31</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AP11" t="n">
         <v>38</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AQ11" t="n">
         <v>2</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AR11" t="n">
         <v>8</v>
       </c>
-      <c r="AR11" t="n">
-        <v>0</v>
-      </c>
       <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
         <v>28</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AU11" t="n">
         <v>11</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AV11" t="n">
         <v>37</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AW11" t="n">
         <v>63</v>
       </c>
-      <c r="AW11" t="n">
+      <c r="AX11" t="n">
         <v>19</v>
       </c>
-      <c r="AX11" t="n">
+      <c r="AY11" t="n">
         <v>22</v>
       </c>
-      <c r="AY11" t="n">
-        <v>6</v>
-      </c>
       <c r="AZ11" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA11" t="n">
         <v>31</v>
       </c>
-      <c r="BA11" t="n">
-        <v>5</v>
-      </c>
       <c r="BB11" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC11" t="n">
         <v>20</v>
       </c>
-      <c r="BC11" t="n">
+      <c r="BD11" t="n">
         <v>31</v>
       </c>
-      <c r="BD11" t="n">
+      <c r="BE11" t="n">
         <v>30</v>
       </c>
-      <c r="BE11" t="n">
-        <v>0</v>
-      </c>
       <c r="BF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG11" t="n">
         <v>25</v>
       </c>
-      <c r="BG11" t="n">
+      <c r="BH11" t="n">
         <v>36</v>
       </c>
-      <c r="BH11" t="n">
+      <c r="BI11" t="n">
         <v>31</v>
       </c>
-      <c r="BI11" t="n">
-        <v>0</v>
-      </c>
       <c r="BJ11" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4910,53 +4871,53 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
         <v>12</v>
       </c>
-      <c r="D12" t="n">
-        <v>9</v>
-      </c>
       <c r="E12" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
         <v>15</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>47</v>
       </c>
-      <c r="I12" t="n">
-        <v>9</v>
-      </c>
       <c r="J12" t="n">
+        <v>9</v>
+      </c>
+      <c r="K12" t="n">
         <v>29</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>16</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>48</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>8</v>
       </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
         <v>11</v>
       </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
@@ -4964,130 +4925,130 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>39</v>
       </c>
-      <c r="V12" t="n">
-        <v>6</v>
-      </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>21</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Z12" t="n">
         <v>29</v>
       </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
       <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
         <v>16</v>
       </c>
-      <c r="AB12" t="n">
-        <v>5</v>
-      </c>
       <c r="AC12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
         <v>46</v>
       </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
       <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
         <v>10</v>
       </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
         <v>11</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AL12" t="n">
         <v>61</v>
       </c>
-      <c r="AL12" t="n">
-        <v>0</v>
-      </c>
       <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
         <v>13</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AO12" t="n">
         <v>16</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AP12" t="n">
         <v>42</v>
       </c>
-      <c r="AP12" t="n">
-        <v>9</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
         <v>25</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AU12" t="n">
         <v>13</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="AV12" t="n">
         <v>18</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="AW12" t="n">
         <v>43</v>
       </c>
-      <c r="AW12" t="n">
+      <c r="AX12" t="n">
         <v>15</v>
       </c>
-      <c r="AX12" t="n">
-        <v>4</v>
-      </c>
       <c r="AY12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>17</v>
       </c>
-      <c r="AZ12" t="n">
+      <c r="BA12" t="n">
         <v>16</v>
       </c>
-      <c r="BA12" t="n">
+      <c r="BB12" t="n">
         <v>12</v>
       </c>
-      <c r="BB12" t="n">
+      <c r="BC12" t="n">
         <v>18</v>
       </c>
-      <c r="BC12" t="n">
+      <c r="BD12" t="n">
         <v>21</v>
       </c>
-      <c r="BD12" t="n">
+      <c r="BE12" t="n">
         <v>23</v>
       </c>
-      <c r="BE12" t="n">
+      <c r="BF12" t="n">
         <v>28</v>
       </c>
-      <c r="BF12" t="n">
+      <c r="BG12" t="n">
         <v>11</v>
       </c>
-      <c r="BG12" t="n">
+      <c r="BH12" t="n">
         <v>40</v>
       </c>
-      <c r="BH12" t="n">
+      <c r="BI12" t="n">
         <v>27</v>
       </c>
-      <c r="BI12" t="n">
-        <v>0</v>
-      </c>
       <c r="BJ12" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -5098,184 +5059,184 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
         <v>22</v>
       </c>
-      <c r="E13" t="n">
-        <v>4</v>
-      </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
         <v>35</v>
       </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
       <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
         <v>30</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>26</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
       <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>40</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>20</v>
       </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
       <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2</v>
       </c>
-      <c r="Q13" t="n">
-        <v>6</v>
-      </c>
       <c r="R13" t="n">
+        <v>6</v>
+      </c>
+      <c r="S13" t="n">
         <v>12</v>
       </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
         <v>53</v>
       </c>
-      <c r="V13" t="n">
-        <v>6</v>
-      </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X13" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y13" t="n">
         <v>31</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Z13" t="n">
         <v>19</v>
       </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
       <c r="AA13" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC13" t="n">
         <v>10</v>
       </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
       <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
         <v>8</v>
       </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
       <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
         <v>46</v>
       </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
       <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
         <v>10</v>
       </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL13" t="n">
         <v>52</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AM13" t="n">
         <v>18</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AN13" t="n">
         <v>23</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AO13" t="n">
         <v>19</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AP13" t="n">
         <v>30</v>
       </c>
-      <c r="AP13" t="n">
-        <v>7</v>
-      </c>
       <c r="AQ13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR13" t="n">
         <v>6</v>
       </c>
       <c r="AS13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT13" t="n">
         <v>43</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="AU13" t="n">
         <v>34</v>
       </c>
-      <c r="AU13" t="n">
+      <c r="AV13" t="n">
         <v>17</v>
       </c>
-      <c r="AV13" t="n">
+      <c r="AW13" t="n">
         <v>39</v>
       </c>
-      <c r="AW13" t="n">
+      <c r="AX13" t="n">
         <v>30</v>
       </c>
-      <c r="AX13" t="n">
-        <v>3</v>
-      </c>
       <c r="AY13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>12</v>
       </c>
-      <c r="AZ13" t="n">
+      <c r="BA13" t="n">
         <v>15</v>
       </c>
-      <c r="BA13" t="n">
-        <v>0</v>
-      </c>
       <c r="BB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="n">
         <v>50</v>
       </c>
-      <c r="BC13" t="n">
+      <c r="BD13" t="n">
         <v>11</v>
       </c>
-      <c r="BD13" t="n">
+      <c r="BE13" t="n">
         <v>12</v>
       </c>
-      <c r="BE13" t="n">
+      <c r="BF13" t="n">
         <v>41</v>
       </c>
-      <c r="BF13" t="n">
+      <c r="BG13" t="n">
         <v>30</v>
       </c>
-      <c r="BG13" t="n">
+      <c r="BH13" t="n">
         <v>38</v>
       </c>
-      <c r="BH13" t="n">
+      <c r="BI13" t="n">
         <v>23</v>
       </c>
-      <c r="BI13" t="n">
-        <v>0</v>
-      </c>
       <c r="BJ13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5297,163 +5258,163 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
       <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>59</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>60</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>42</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>43</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>61</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>44</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>45</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>48</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>49</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>50</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>51</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>52</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>54</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>55</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>56</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -5461,163 +5422,163 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
         <v>15</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>27</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>13</v>
       </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2" t="n">
         <v>31</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="n">
         <v>2</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
+        <v>7</v>
+      </c>
+      <c r="R2" t="n">
         <v>12</v>
       </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>35</v>
       </c>
-      <c r="W2" t="n">
-        <v>4</v>
-      </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
         <v>13</v>
       </c>
-      <c r="AA2" t="n">
-        <v>9</v>
-      </c>
       <c r="AB2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC2" t="n">
         <v>13</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>70</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>12</v>
       </c>
-      <c r="AE2" t="n">
-        <v>3</v>
-      </c>
       <c r="AF2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG2" t="n">
         <v>10</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>20</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>11</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>8</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
       <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
         <v>43</v>
       </c>
-      <c r="AL2" t="n">
-        <v>4</v>
-      </c>
       <c r="AM2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN2" t="n">
         <v>29</v>
       </c>
-      <c r="AN2" t="n">
-        <v>3</v>
-      </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>11</v>
       </c>
-      <c r="AQ2" t="n">
-        <v>3</v>
-      </c>
       <c r="AR2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AS2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT2" t="n">
         <v>15</v>
       </c>
-      <c r="AT2" t="n">
-        <v>0</v>
-      </c>
       <c r="AU2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX2" t="n">
         <v>28</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AY2" t="n">
         <v>8</v>
       </c>
-      <c r="AY2" t="n">
-        <v>0</v>
-      </c>
       <c r="AZ2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BA2" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB2" t="n">
         <v>23</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -5628,160 +5589,160 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>11</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>29</v>
       </c>
-      <c r="E3" t="n">
-        <v>4</v>
-      </c>
       <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="n">
         <v>2</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K3" t="n">
         <v>29</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>8</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>15</v>
       </c>
-      <c r="T3" t="n">
-        <v>9</v>
-      </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>26</v>
       </c>
-      <c r="W3" t="n">
-        <v>5</v>
-      </c>
       <c r="X3" t="n">
         <v>5</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
         <v>12</v>
       </c>
-      <c r="AA3" t="n">
-        <v>7</v>
-      </c>
       <c r="AB3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC3" t="n">
         <v>15</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>63</v>
       </c>
-      <c r="AD3" t="n">
-        <v>4</v>
-      </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH3" t="n">
         <v>21</v>
       </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
       <c r="AI3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
         <v>51</v>
       </c>
-      <c r="AL3" t="n">
-        <v>4</v>
-      </c>
       <c r="AM3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN3" t="n">
         <v>28</v>
       </c>
-      <c r="AN3" t="n">
-        <v>7</v>
-      </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>15</v>
       </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
       <c r="AR3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT3" t="n">
         <v>10</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AU3" t="n">
         <v>14</v>
       </c>
-      <c r="AU3" t="n">
-        <v>4</v>
-      </c>
       <c r="AV3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX3" t="n">
         <v>17</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AY3" t="n">
         <v>16</v>
       </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
       <c r="AZ3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BA3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB3" t="n">
         <v>20</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -5789,163 +5750,163 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>18</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>23</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>2</v>
       </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>8</v>
       </c>
-      <c r="I4" t="n">
-        <v>5</v>
-      </c>
       <c r="J4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" t="n">
         <v>34</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>6</v>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
+        <v>4</v>
+      </c>
+      <c r="U4" t="n">
         <v>8</v>
       </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
       <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>31</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>1</v>
       </c>
-      <c r="X4" t="n">
-        <v>4</v>
-      </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
         <v>22</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>2</v>
       </c>
-      <c r="AB4" t="n">
-        <v>3</v>
-      </c>
       <c r="AC4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD4" t="n">
         <v>71</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
         <v>19</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
         <v>2</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AG4" t="n">
         <v>10</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AH4" t="n">
         <v>11</v>
       </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
       <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>13</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
       <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
         <v>38</v>
       </c>
-      <c r="AL4" t="n">
-        <v>7</v>
-      </c>
       <c r="AM4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN4" t="n">
         <v>15</v>
       </c>
-      <c r="AN4" t="n">
-        <v>5</v>
-      </c>
       <c r="AO4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AP4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
         <v>8</v>
       </c>
-      <c r="AS4" t="n">
-        <v>5</v>
-      </c>
       <c r="AT4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU4" t="n">
         <v>26</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AV4" t="n">
         <v>8</v>
       </c>
-      <c r="AV4" t="n">
-        <v>6</v>
-      </c>
       <c r="AW4" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AX4" t="n">
         <v>14</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AZ4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB4" t="n">
         <v>16</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5953,49 +5914,49 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>23</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>19</v>
       </c>
-      <c r="E5" t="n">
-        <v>3</v>
-      </c>
       <c r="F5" t="n">
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>19</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>24</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>1</v>
       </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -6004,112 +5965,112 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>2</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>14</v>
       </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>34</v>
       </c>
-      <c r="W5" t="n">
-        <v>4</v>
-      </c>
       <c r="X5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
         <v>17</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
         <v>14</v>
       </c>
-      <c r="AB5" t="n">
-        <v>4</v>
-      </c>
       <c r="AC5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD5" t="n">
         <v>38</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AE5" t="n">
         <v>18</v>
       </c>
-      <c r="AE5" t="n">
-        <v>5</v>
-      </c>
       <c r="AF5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AG5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH5" t="n">
         <v>12</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AI5" t="n">
         <v>1</v>
       </c>
-      <c r="AI5" t="n">
-        <v>9</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
         <v>28</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AM5" t="n">
         <v>11</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AN5" t="n">
         <v>22</v>
       </c>
-      <c r="AN5" t="n">
-        <v>3</v>
-      </c>
       <c r="AO5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP5" t="n">
         <v>14</v>
       </c>
-      <c r="AP5" t="n">
-        <v>9</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AR5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS5" t="n">
         <v>10</v>
       </c>
-      <c r="AS5" t="n">
-        <v>4</v>
-      </c>
       <c r="AT5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU5" t="n">
         <v>16</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AV5" t="n">
         <v>23</v>
       </c>
-      <c r="AV5" t="n">
-        <v>4</v>
-      </c>
       <c r="AW5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX5" t="n">
         <v>26</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AY5" t="n">
         <v>17</v>
       </c>
-      <c r="AY5" t="n">
-        <v>0</v>
-      </c>
       <c r="AZ5" t="n">
         <v>0</v>
       </c>
       <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
         <v>13</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -6120,47 +6081,47 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
         <v>37</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>23</v>
       </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>15</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>13</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>8</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>29</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
@@ -6168,112 +6129,112 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>12</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>15</v>
       </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
       <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>30</v>
       </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
         <v>12</v>
       </c>
-      <c r="AA6" t="n">
-        <v>7</v>
-      </c>
       <c r="AB6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD6" t="n">
         <v>33</v>
       </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
       <c r="AE6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF6" t="n">
         <v>14</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AG6" t="n">
         <v>8</v>
       </c>
-      <c r="AG6" t="n">
-        <v>7</v>
-      </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL6" t="n">
         <v>26</v>
       </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
       <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
         <v>25</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
       <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
         <v>17</v>
       </c>
-      <c r="AP6" t="n">
-        <v>4</v>
-      </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
         <v>13</v>
       </c>
-      <c r="AS6" t="n">
-        <v>0</v>
-      </c>
       <c r="AT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="n">
         <v>21</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AV6" t="n">
         <v>26</v>
       </c>
-      <c r="AV6" t="n">
-        <v>6</v>
-      </c>
       <c r="AW6" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
         <v>17</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB6" t="n">
         <v>10</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -6284,47 +6245,47 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
         <v>42</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>26</v>
       </c>
-      <c r="E7" t="n">
-        <v>6</v>
-      </c>
       <c r="F7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" t="n">
         <v>13</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>18</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" t="n">
         <v>43</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
@@ -6332,49 +6293,49 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>14</v>
       </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
       <c r="X7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
         <v>10</v>
       </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
       <c r="AB7" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD7" t="n">
         <v>35</v>
       </c>
-      <c r="AD7" t="n">
-        <v>9</v>
-      </c>
       <c r="AE7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF7" t="n">
         <v>18</v>
       </c>
-      <c r="AF7" t="n">
-        <v>7</v>
-      </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -6383,61 +6344,61 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL7" t="n">
         <v>32</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AM7" t="n">
         <v>2</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AN7" t="n">
         <v>20</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AO7" t="n">
         <v>2</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AP7" t="n">
         <v>10</v>
       </c>
-      <c r="AP7" t="n">
-        <v>4</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
         <v>16</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AV7" t="n">
         <v>10</v>
       </c>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
       <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
         <v>11</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AY7" t="n">
         <v>15</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AZ7" t="n">
         <v>10</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="BA7" t="n">
         <v>8</v>
       </c>
-      <c r="BA7" t="n">
-        <v>5</v>
-      </c>
       <c r="BB7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -6448,47 +6409,47 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>48</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>25</v>
       </c>
-      <c r="E8" t="n">
-        <v>6</v>
-      </c>
       <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="n">
         <v>27</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>24</v>
       </c>
-      <c r="I8" t="n">
-        <v>3</v>
-      </c>
       <c r="J8" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
+        <v>9</v>
+      </c>
+      <c r="L8" t="n">
         <v>2</v>
       </c>
-      <c r="L8" t="n">
-        <v>7</v>
-      </c>
       <c r="M8" t="n">
+        <v>7</v>
+      </c>
+      <c r="N8" t="n">
         <v>10</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>25</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>36</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
@@ -6496,20 +6457,20 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>17</v>
       </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
@@ -6520,88 +6481,88 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC8" t="n">
         <v>14</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AD8" t="n">
         <v>32</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AE8" t="n">
         <v>2</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AF8" t="n">
         <v>18</v>
       </c>
-      <c r="AF8" t="n">
-        <v>4</v>
-      </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AK8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL8" t="n">
         <v>24</v>
       </c>
-      <c r="AL8" t="n">
-        <v>4</v>
-      </c>
       <c r="AM8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN8" t="n">
         <v>22</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AO8" t="n">
         <v>2</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AP8" t="n">
         <v>14</v>
       </c>
-      <c r="AP8" t="n">
-        <v>3</v>
-      </c>
       <c r="AQ8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AT8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV8" t="n">
         <v>10</v>
       </c>
-      <c r="AV8" t="n">
-        <v>3</v>
-      </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY8" t="n">
         <v>12</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AZ8" t="n">
         <v>15</v>
       </c>
-      <c r="AZ8" t="n">
-        <v>4</v>
-      </c>
       <c r="BA8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -6609,71 +6570,71 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>37</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>34</v>
       </c>
-      <c r="E9" t="n">
-        <v>6</v>
-      </c>
       <c r="F9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" t="n">
         <v>21</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>19</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>13</v>
       </c>
-      <c r="K9" t="n">
-        <v>4</v>
-      </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O9" t="n">
         <v>29</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>19</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>8</v>
       </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>8</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>15</v>
       </c>
-      <c r="T9" t="n">
-        <v>6</v>
-      </c>
       <c r="U9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V9" t="n">
         <v>28</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>14</v>
       </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
@@ -6681,91 +6642,91 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
         <v>43</v>
       </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
       <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
         <v>47</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AD9" t="n">
         <v>31</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AE9" t="n">
         <v>8</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AF9" t="n">
         <v>15</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AG9" t="n">
         <v>8</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AH9" t="n">
         <v>12</v>
       </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
       <c r="AI9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AK9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL9" t="n">
         <v>13</v>
       </c>
-      <c r="AL9" t="n">
-        <v>3</v>
-      </c>
       <c r="AM9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN9" t="n">
         <v>21</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
       <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
         <v>20</v>
       </c>
-      <c r="AP9" t="n">
-        <v>4</v>
-      </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
         <v>13</v>
       </c>
-      <c r="AS9" t="n">
-        <v>0</v>
-      </c>
       <c r="AT9" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV9" t="n">
         <v>8</v>
       </c>
-      <c r="AV9" t="n">
-        <v>3</v>
-      </c>
       <c r="AW9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX9" t="n">
         <v>13</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="AY9" t="n">
         <v>11</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="AZ9" t="n">
         <v>8</v>
       </c>
-      <c r="AZ9" t="n">
-        <v>0</v>
-      </c>
       <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
         <v>12</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -6776,67 +6737,67 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
         <v>28</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>38</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>8</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>27</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>23</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>14</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>13</v>
       </c>
-      <c r="K10" t="n">
-        <v>3</v>
-      </c>
       <c r="L10" t="n">
         <v>3</v>
       </c>
       <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="n">
         <v>8</v>
       </c>
-      <c r="N10" t="n">
-        <v>7</v>
-      </c>
       <c r="O10" t="n">
+        <v>7</v>
+      </c>
+      <c r="P10" t="n">
         <v>24</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>23</v>
-      </c>
-      <c r="S10" t="n">
-        <v>8</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
       </c>
       <c r="U10" t="n">
+        <v>8</v>
+      </c>
+      <c r="V10" t="n">
         <v>40</v>
       </c>
-      <c r="V10" t="n">
-        <v>3</v>
-      </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -6845,91 +6806,91 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
         <v>27</v>
       </c>
-      <c r="AA10" t="n">
-        <v>4</v>
-      </c>
       <c r="AB10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC10" t="n">
         <v>65</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AD10" t="n">
         <v>20</v>
       </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
       <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
         <v>10</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AG10" t="n">
         <v>22</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>8</v>
       </c>
       <c r="AH10" t="n">
         <v>8</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL10" t="n">
         <v>30</v>
       </c>
-      <c r="AL10" t="n">
-        <v>6</v>
-      </c>
       <c r="AM10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN10" t="n">
         <v>24</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AO10" t="n">
         <v>2</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AP10" t="n">
         <v>19</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AQ10" t="n">
         <v>2</v>
       </c>
-      <c r="AQ10" t="n">
-        <v>4</v>
-      </c>
       <c r="AR10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
       </c>
       <c r="AV10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW10" t="n">
         <v>2</v>
       </c>
-      <c r="AW10" t="n">
-        <v>3</v>
-      </c>
       <c r="AX10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY10" t="n">
         <v>8</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="AZ10" t="n">
         <v>17</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="BA10" t="n">
         <v>20</v>
       </c>
-      <c r="BA10" t="n">
-        <v>0</v>
-      </c>
       <c r="BB10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -6940,67 +6901,67 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
         <v>34</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>14</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>25</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>41</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>10</v>
       </c>
-      <c r="L11" t="n">
-        <v>3</v>
-      </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
+        <v>5</v>
+      </c>
+      <c r="O11" t="n">
         <v>11</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>28</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
         <v>50</v>
       </c>
-      <c r="V11" t="n">
-        <v>4</v>
-      </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -7009,91 +6970,91 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
         <v>52</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AD11" t="n">
         <v>24</v>
       </c>
-      <c r="AD11" t="n">
-        <v>4</v>
-      </c>
       <c r="AE11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG11" t="n">
         <v>37</v>
       </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
       <c r="AH11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AL11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM11" t="n">
         <v>15</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AN11" t="n">
         <v>24</v>
       </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
       <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
         <v>12</v>
       </c>
-      <c r="AP11" t="n">
-        <v>4</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AR11" t="n">
         <v>8</v>
       </c>
       <c r="AS11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
         <v>8</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AV11" t="n">
         <v>10</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AW11" t="n">
         <v>8</v>
       </c>
-      <c r="AW11" t="n">
+      <c r="AX11" t="n">
         <v>14</v>
       </c>
-      <c r="AX11" t="n">
+      <c r="AY11" t="n">
         <v>10</v>
       </c>
-      <c r="AY11" t="n">
+      <c r="AZ11" t="n">
         <v>13</v>
       </c>
-      <c r="AZ11" t="n">
+      <c r="BA11" t="n">
         <v>29</v>
       </c>
-      <c r="BA11" t="n">
-        <v>0</v>
-      </c>
       <c r="BB11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -7101,50 +7062,50 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
         <v>16</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>15</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>18</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>8</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>40</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
+        <v>3</v>
+      </c>
+      <c r="P12" t="n">
         <v>24</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
@@ -7158,106 +7119,106 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>25</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>2</v>
       </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
       <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>1</v>
       </c>
-      <c r="Y12" t="n">
-        <v>6</v>
-      </c>
       <c r="Z12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA12" t="n">
         <v>4</v>
       </c>
       <c r="AB12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC12" t="n">
         <v>39</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AD12" t="n">
         <v>28</v>
       </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
       <c r="AE12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG12" t="n">
         <v>16</v>
       </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
       <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
         <v>15</v>
       </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AL12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AM12" t="n">
         <v>11</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
         <v>14</v>
       </c>
-      <c r="AP12" t="n">
-        <v>5</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU12" t="n">
         <v>2</v>
       </c>
       <c r="AV12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW12" t="n">
         <v>18</v>
       </c>
-      <c r="AW12" t="n">
-        <v>9</v>
-      </c>
       <c r="AX12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AY12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ12" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA12" t="n">
         <v>23</v>
       </c>
-      <c r="BA12" t="n">
-        <v>0</v>
-      </c>
       <c r="BB12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -7265,17 +7226,17 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
         <v>29</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>17</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
@@ -7283,142 +7244,142 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" t="n">
         <v>44</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>12</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
+        <v>5</v>
+      </c>
+      <c r="P13" t="n">
         <v>23</v>
       </c>
-      <c r="P13" t="n">
-        <v>3</v>
-      </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
         <v>40</v>
       </c>
-      <c r="V13" t="n">
-        <v>4</v>
-      </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AA13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB13" t="n">
         <v>11</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>15</v>
       </c>
       <c r="AC13" t="n">
         <v>15</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG13" t="n">
         <v>31</v>
       </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
       <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
         <v>11</v>
       </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
         <v>18</v>
       </c>
-      <c r="AK13" t="n">
-        <v>7</v>
-      </c>
       <c r="AL13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN13" t="n">
         <v>14</v>
       </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
       <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
         <v>15</v>
       </c>
-      <c r="AP13" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="n">
         <v>8</v>
       </c>
-      <c r="AU13" t="n">
-        <v>0</v>
-      </c>
       <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
         <v>19</v>
       </c>
-      <c r="AW13" t="n">
+      <c r="AX13" t="n">
         <v>11</v>
       </c>
-      <c r="AX13" t="n">
-        <v>3</v>
-      </c>
       <c r="AY13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>14</v>
       </c>
-      <c r="AZ13" t="n">
+      <c r="BA13" t="n">
         <v>28</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>0</v>
       </c>
       <c r="BB13" t="n">
         <v>0</v>
@@ -7443,172 +7404,172 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>59</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>60</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>61</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>52</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>53</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>54</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>55</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>56</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -7628,77 +7589,77 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>10</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>2</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>32</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>18</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>28</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" t="n">
         <v>11</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>8</v>
       </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>20</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>1</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>11</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>10</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>15</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>19</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>28</v>
       </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
       <c r="AD2" t="n">
         <v>0</v>
       </c>
@@ -7706,82 +7667,82 @@
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
         <v>13</v>
       </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ2" t="n">
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AP2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR2" t="n">
         <v>11</v>
       </c>
-      <c r="AR2" t="n">
-        <v>0</v>
-      </c>
       <c r="AS2" t="n">
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AW2" t="n">
         <v>0</v>
       </c>
       <c r="AX2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BA2" t="n">
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BC2" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD2" t="n">
         <v>26</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BE2" t="n">
         <v>13</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -7801,31 +7762,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>14</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
         <v>28</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>24</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>31</v>
       </c>
-      <c r="L3" t="n">
-        <v>4</v>
-      </c>
       <c r="M3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -7834,89 +7795,89 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>5</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>42</v>
       </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
       <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>34</v>
       </c>
-      <c r="Y3" t="n">
-        <v>3</v>
-      </c>
       <c r="Z3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB3" t="n">
         <v>8</v>
       </c>
-      <c r="AB3" t="n">
-        <v>6</v>
-      </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
         <v>2</v>
       </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
       <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
         <v>2</v>
       </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
       <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
         <v>18</v>
       </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ3" t="n">
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
         <v>2</v>
       </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
       <c r="AP3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR3" t="n">
         <v>2</v>
       </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
       <c r="AS3" t="n">
         <v>0</v>
       </c>
@@ -7924,37 +7885,37 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY3" t="n">
         <v>15</v>
       </c>
-      <c r="AY3" t="n">
-        <v>4</v>
-      </c>
       <c r="AZ3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BA3" t="n">
         <v>0</v>
       </c>
       <c r="BB3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BC3" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD3" t="n">
         <v>16</v>
       </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
       <c r="BE3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -7971,37 +7932,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
         <v>13</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>24</v>
       </c>
       <c r="K4" t="n">
+        <v>24</v>
+      </c>
+      <c r="L4" t="n">
         <v>27</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>2</v>
       </c>
-      <c r="M4" t="n">
-        <v>7</v>
-      </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -8010,41 +7971,41 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>28</v>
       </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
       <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>59</v>
       </c>
-      <c r="Y4" t="n">
-        <v>5</v>
-      </c>
       <c r="Z4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB4" t="n">
         <v>8</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
         <v>17</v>
       </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
       <c r="AD4" t="n">
         <v>0</v>
       </c>
@@ -8055,62 +8016,62 @@
         <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI4" t="n">
         <v>17</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AJ4" t="n">
         <v>16</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
       <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
         <v>2</v>
       </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
       <c r="AM4" t="n">
         <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>13</v>
       </c>
-      <c r="AQ4" t="n">
-        <v>7</v>
-      </c>
       <c r="AR4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS4" t="n">
         <v>15</v>
       </c>
-      <c r="AS4" t="n">
-        <v>0</v>
-      </c>
       <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
         <v>2</v>
       </c>
-      <c r="AU4" t="n">
-        <v>3</v>
-      </c>
       <c r="AV4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY4" t="n">
         <v>17</v>
       </c>
-      <c r="AY4" t="n">
-        <v>0</v>
-      </c>
       <c r="AZ4" t="n">
         <v>0</v>
       </c>
@@ -8118,16 +8079,16 @@
         <v>0</v>
       </c>
       <c r="BB4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BC4" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD4" t="n">
         <v>23</v>
       </c>
-      <c r="BD4" t="n">
-        <v>0</v>
-      </c>
       <c r="BE4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -8141,166 +8102,166 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" t="n">
         <v>16</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>9</v>
+      </c>
+      <c r="K5" t="n">
         <v>34</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>19</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>8</v>
       </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
       <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
         <v>10</v>
       </c>
-      <c r="O5" t="n">
-        <v>6</v>
-      </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>32</v>
       </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>42</v>
       </c>
-      <c r="Y5" t="n">
-        <v>4</v>
-      </c>
       <c r="Z5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA5" t="n">
         <v>2</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
         <v>1</v>
       </c>
-      <c r="AB5" t="n">
-        <v>5</v>
-      </c>
       <c r="AC5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF5" t="n">
         <v>0</v>
       </c>
       <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
         <v>8</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AI5" t="n">
         <v>15</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AJ5" t="n">
         <v>20</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
       <c r="AK5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
       </c>
       <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
         <v>2</v>
       </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
       <c r="AP5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
         <v>8</v>
       </c>
-      <c r="AS5" t="n">
-        <v>0</v>
-      </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AU5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV5" t="n">
         <v>11</v>
       </c>
-      <c r="AV5" t="n">
-        <v>0</v>
-      </c>
       <c r="AW5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AX5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY5" t="n">
         <v>19</v>
       </c>
-      <c r="AY5" t="n">
-        <v>3</v>
-      </c>
       <c r="AZ5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA5" t="n">
         <v>2</v>
       </c>
-      <c r="BA5" t="n">
-        <v>0</v>
-      </c>
       <c r="BB5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
         <v>1</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -8308,58 +8269,58 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" t="n">
         <v>13</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>11</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>12</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>47</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>21</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>13</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>16</v>
       </c>
-      <c r="O6" t="n">
-        <v>5</v>
-      </c>
       <c r="P6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -8368,17 +8329,17 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>26</v>
       </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
       <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>30</v>
       </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
@@ -8386,94 +8347,94 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AD6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF6" t="n">
         <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>14</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
       <c r="AK6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>2</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
       <c r="AR6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="n">
         <v>2</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AV6" t="n">
         <v>18</v>
       </c>
-      <c r="AV6" t="n">
-        <v>0</v>
-      </c>
       <c r="AW6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AZ6" t="n">
         <v>0</v>
       </c>
       <c r="BA6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC6" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD6" t="n">
         <v>21</v>
       </c>
-      <c r="BD6" t="n">
-        <v>4</v>
-      </c>
       <c r="BE6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -8481,91 +8442,91 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
         <v>9</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>10</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>40</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>22</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>10</v>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
       <c r="N7" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" t="n">
         <v>20</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>8</v>
       </c>
-      <c r="P7" t="n">
-        <v>9</v>
-      </c>
       <c r="Q7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>11</v>
       </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
       <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>19</v>
       </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
       <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
         <v>8</v>
       </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
       <c r="AB7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
@@ -8574,62 +8535,62 @@
         <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI7" t="n">
         <v>12</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AJ7" t="n">
         <v>18</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
       <c r="AK7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
         <v>8</v>
       </c>
-      <c r="AS7" t="n">
-        <v>0</v>
-      </c>
       <c r="AT7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AV7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AW7" t="n">
         <v>0</v>
       </c>
       <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
         <v>10</v>
       </c>
-      <c r="AY7" t="n">
-        <v>0</v>
-      </c>
       <c r="AZ7" t="n">
         <v>0</v>
       </c>
@@ -8637,16 +8598,16 @@
         <v>0</v>
       </c>
       <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
         <v>18</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>10</v>
       </c>
-      <c r="BD7" t="n">
-        <v>3</v>
-      </c>
       <c r="BE7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -8654,155 +8615,155 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>26</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
       </c>
       <c r="F8" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" t="n">
         <v>2</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>11</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>12</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>37</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>18</v>
       </c>
-      <c r="L8" t="n">
-        <v>4</v>
-      </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="n">
+        <v>5</v>
+      </c>
+      <c r="O8" t="n">
         <v>28</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>11</v>
       </c>
-      <c r="P8" t="n">
-        <v>6</v>
-      </c>
       <c r="Q8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R8" t="n">
         <v>4</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>11</v>
       </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>12</v>
       </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>38</v>
       </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
       <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
         <v>24</v>
       </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF8" t="n">
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>8</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
       <c r="AK8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AM8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN8" t="n">
         <v>12</v>
       </c>
-      <c r="AN8" t="n">
-        <v>6</v>
-      </c>
       <c r="AO8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP8" t="n">
         <v>12</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AQ8" t="n">
         <v>16</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
       <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
         <v>10</v>
       </c>
-      <c r="AS8" t="n">
-        <v>0</v>
-      </c>
       <c r="AT8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV8" t="n">
         <v>12</v>
       </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
       <c r="AW8" t="n">
         <v>0</v>
       </c>
       <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
         <v>2</v>
       </c>
-      <c r="AY8" t="n">
-        <v>0</v>
-      </c>
       <c r="AZ8" t="n">
         <v>0</v>
       </c>
@@ -8810,16 +8771,16 @@
         <v>0</v>
       </c>
       <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
         <v>30</v>
       </c>
-      <c r="BC8" t="n">
-        <v>3</v>
-      </c>
       <c r="BD8" t="n">
         <v>3</v>
       </c>
       <c r="BE8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -8827,91 +8788,91 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>11</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>2</v>
       </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
       <c r="G9" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" t="n">
         <v>19</v>
       </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
       <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="n">
         <v>21</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>28</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>12</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>13</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>1</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>19</v>
       </c>
-      <c r="O9" t="n">
-        <v>5</v>
-      </c>
       <c r="P9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T9" t="n">
         <v>16</v>
       </c>
-      <c r="T9" t="n">
-        <v>5</v>
-      </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>18</v>
       </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
       <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>26</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Z9" t="n">
         <v>15</v>
       </c>
-      <c r="Z9" t="n">
-        <v>9</v>
-      </c>
       <c r="AA9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AB9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AC9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -8920,62 +8881,62 @@
         <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>11</v>
       </c>
       <c r="AI9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>22</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
       <c r="AK9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM9" t="n">
         <v>11</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AN9" t="n">
         <v>18</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AO9" t="n">
         <v>15</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AP9" t="n">
         <v>16</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AQ9" t="n">
         <v>24</v>
       </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
       <c r="AR9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AU9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
         <v>2</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="AY9" t="n">
         <v>17</v>
       </c>
-      <c r="AY9" t="n">
-        <v>0</v>
-      </c>
       <c r="AZ9" t="n">
         <v>0</v>
       </c>
@@ -8983,13 +8944,13 @@
         <v>0</v>
       </c>
       <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
         <v>46</v>
       </c>
-      <c r="BC9" t="n">
-        <v>4</v>
-      </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BE9" t="n">
         <v>0</v>
@@ -9000,91 +8961,91 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
         <v>11</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="n">
-        <v>9</v>
-      </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
         <v>23</v>
-      </c>
-      <c r="J10" t="n">
-        <v>30</v>
       </c>
       <c r="K10" t="n">
         <v>30</v>
       </c>
       <c r="L10" t="n">
+        <v>30</v>
+      </c>
+      <c r="M10" t="n">
         <v>12</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>2</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>20</v>
       </c>
-      <c r="O10" t="n">
-        <v>4</v>
-      </c>
       <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
         <v>10</v>
       </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
       <c r="R10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="n">
         <v>15</v>
       </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
       <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>1</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>2</v>
       </c>
-      <c r="W10" t="n">
-        <v>5</v>
-      </c>
       <c r="X10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y10" t="n">
         <v>23</v>
       </c>
-      <c r="Y10" t="n">
-        <v>6</v>
-      </c>
       <c r="Z10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA10" t="n">
         <v>15</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AB10" t="n">
         <v>17</v>
       </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
       <c r="AC10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
@@ -9093,61 +9054,61 @@
         <v>0</v>
       </c>
       <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
         <v>19</v>
       </c>
-      <c r="AH10" t="n">
-        <v>9</v>
-      </c>
       <c r="AI10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>11</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AK10" t="n">
         <v>10</v>
       </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
       <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
         <v>10</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AN10" t="n">
         <v>14</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AO10" t="n">
         <v>8</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AP10" t="n">
         <v>15</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AQ10" t="n">
         <v>12</v>
       </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
       <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
         <v>8</v>
       </c>
-      <c r="AS10" t="n">
-        <v>0</v>
-      </c>
       <c r="AT10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
         <v>1</v>
       </c>
-      <c r="AX10" t="n">
-        <v>4</v>
-      </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AZ10" t="n">
         <v>0</v>
@@ -9156,13 +9117,13 @@
         <v>0</v>
       </c>
       <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
         <v>24</v>
       </c>
-      <c r="BC10" t="n">
-        <v>3</v>
-      </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE10" t="n">
         <v>0</v>
@@ -9179,80 +9140,80 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>21</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>2</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>19</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>44</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>19</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>35</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>24</v>
       </c>
-      <c r="L11" t="n">
-        <v>7</v>
-      </c>
       <c r="M11" t="n">
+        <v>7</v>
+      </c>
+      <c r="N11" t="n">
         <v>10</v>
       </c>
-      <c r="N11" t="n">
-        <v>3</v>
-      </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>8</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>2</v>
       </c>
-      <c r="R11" t="n">
-        <v>6</v>
-      </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
+        <v>3</v>
+      </c>
+      <c r="X11" t="n">
         <v>13</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Y11" t="n">
         <v>16</v>
       </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
       <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
         <v>18</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AB11" t="n">
         <v>30</v>
       </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
       <c r="AC11" t="n">
         <v>0</v>
       </c>
@@ -9260,67 +9221,67 @@
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
         <v>17</v>
       </c>
-      <c r="AH11" t="n">
-        <v>6</v>
-      </c>
       <c r="AI11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
         <v>2</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AN11" t="n">
         <v>15</v>
       </c>
-      <c r="AN11" t="n">
-        <v>6</v>
-      </c>
       <c r="AO11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP11" t="n">
         <v>13</v>
       </c>
-      <c r="AP11" t="n">
-        <v>7</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AR11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT11" t="n">
         <v>2</v>
       </c>
-      <c r="AT11" t="n">
-        <v>6</v>
-      </c>
       <c r="AU11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW11" t="n">
         <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
@@ -9329,16 +9290,16 @@
         <v>0</v>
       </c>
       <c r="BB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="n">
         <v>40</v>
       </c>
-      <c r="BC11" t="n">
-        <v>7</v>
-      </c>
       <c r="BD11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BE11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -9349,58 +9310,58 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
+        <v>9</v>
+      </c>
+      <c r="F12" t="n">
         <v>20</v>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
       <c r="G12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
+        <v>9</v>
+      </c>
+      <c r="I12" t="n">
         <v>71</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>2</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>45</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>8</v>
       </c>
-      <c r="M12" t="n">
-        <v>3</v>
-      </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>15</v>
       </c>
-      <c r="Q12" t="n">
-        <v>6</v>
-      </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S12" t="n">
         <v>4</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -9409,23 +9370,23 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>10</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Y12" t="n">
         <v>13</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Z12" t="n">
         <v>15</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AA12" t="n">
         <v>21</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AB12" t="n">
         <v>37</v>
       </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
       <c r="AC12" t="n">
         <v>0</v>
       </c>
@@ -9433,85 +9394,85 @@
         <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI12" t="n">
         <v>2</v>
       </c>
-      <c r="AI12" t="n">
-        <v>5</v>
-      </c>
       <c r="AJ12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AL12" t="n">
         <v>0</v>
       </c>
       <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
         <v>16</v>
       </c>
-      <c r="AN12" t="n">
-        <v>0</v>
-      </c>
       <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
         <v>17</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AQ12" t="n">
         <v>13</v>
       </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
       <c r="AR12" t="n">
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
       </c>
       <c r="AV12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AX12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
         <v>2</v>
       </c>
-      <c r="BA12" t="n">
+      <c r="BB12" t="n">
         <v>1</v>
       </c>
-      <c r="BB12" t="n">
+      <c r="BC12" t="n">
         <v>23</v>
       </c>
-      <c r="BC12" t="n">
-        <v>6</v>
-      </c>
       <c r="BD12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BE12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -9522,41 +9483,41 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
         <v>2</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>11</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>13</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>1</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>14</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>48</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>19</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>29</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
         <v>11</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>1</v>
       </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
@@ -9564,41 +9525,41 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
         <v>15</v>
       </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
         <v>1</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>14</v>
-      </c>
-      <c r="X13" t="n">
-        <v>11</v>
       </c>
       <c r="Y13" t="n">
         <v>11</v>
       </c>
       <c r="Z13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA13" t="n">
         <v>21</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AB13" t="n">
         <v>24</v>
       </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
@@ -9606,67 +9567,67 @@
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL13" t="n">
         <v>0</v>
       </c>
       <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
         <v>18</v>
       </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
       <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
         <v>10</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AQ13" t="n">
         <v>13</v>
       </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
       <c r="AR13" t="n">
         <v>0</v>
       </c>
       <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
         <v>1</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="AU13" t="n">
         <v>2</v>
       </c>
-      <c r="AU13" t="n">
-        <v>0</v>
-      </c>
       <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
         <v>10</v>
       </c>
-      <c r="AW13" t="n">
-        <v>0</v>
-      </c>
       <c r="AX13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
@@ -9675,16 +9636,16 @@
         <v>0</v>
       </c>
       <c r="BB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="n">
         <v>42</v>
       </c>
-      <c r="BC13" t="n">
+      <c r="BD13" t="n">
         <v>8</v>
       </c>
-      <c r="BD13" t="n">
-        <v>5</v>
-      </c>
       <c r="BE13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
